--- a/modules/log/Ревизор - Саулет.xlsx
+++ b/modules/log/Ревизор - Саулет.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -666,9 +666,53 @@
         <v>18</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Ревизор - Саулет</v>
+      </c>
+      <c r="B7" t="str">
+        <v>40092</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Жапатаева Лариса</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Новостройка (Айтеке би)</v>
+      </c>
+      <c r="E7" t="str">
+        <v>405</v>
+      </c>
+      <c r="F7" t="str">
+        <v>71530</v>
+      </c>
+      <c r="G7" t="str">
+        <v>336</v>
+      </c>
+      <c r="H7" t="str">
+        <v>564</v>
+      </c>
+      <c r="I7" t="str">
+        <v>228</v>
+      </c>
+      <c r="J7" t="str">
+        <v>2025</v>
+      </c>
+      <c r="K7" t="str">
+        <v>6</v>
+      </c>
+      <c r="L7" t="str">
+        <v>1</v>
+      </c>
+      <c r="M7" t="str">
+        <v>23</v>
+      </c>
+      <c r="N7" t="str">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N7"/>
   </ignoredErrors>
 </worksheet>
 </file>